--- a/MainTop/01.02.2025 имена/имена_sorted.xlsx
+++ b/MainTop/01.02.2025 имена/имена_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\01.02.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE200FD4-3AF5-4CA3-981B-CE36F1A7848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF18D22-99CC-4193-B10C-926E3D419305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -312,11 +312,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -633,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="A1:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,1209 +662,1209 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1.29</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.71</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.43</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.46</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.36</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.39</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.36</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.36</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.39</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.46</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.39</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.39</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.32</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0.25</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.25</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.25</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.32</v>
       </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.32</v>
       </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.36</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0.18</v>
       </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0.21</v>
       </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0.18</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0.18</v>
       </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0.18</v>
       </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0.21</v>
       </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0.18</v>
       </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0.18</v>
       </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0.21</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0.21</v>
       </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0.21</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.04</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>0.04</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>0.04</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>0.04</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>0.04</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>0.04</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>0.04</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>0.11</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>0.04</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>0.04</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>0.04</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>0.04</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>0.04</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>0.11</v>
       </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>0.04</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>0.11</v>
       </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>0.11</v>
       </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/MainTop/01.02.2025 имена/имена_sorted.xlsx
+++ b/MainTop/01.02.2025 имена/имена_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\01.02.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF18D22-99CC-4193-B10C-926E3D419305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C87A7-94AD-4BA1-9D8C-89348D60DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="A1:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
     <col min="2" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -677,8 +677,12 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>D2/2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -694,8 +698,12 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3/2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -711,8 +719,12 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -728,8 +740,12 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -745,8 +761,12 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -762,8 +782,12 @@
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -779,8 +803,12 @@
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -796,8 +824,12 @@
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -813,8 +845,12 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -830,8 +866,12 @@
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -847,8 +887,12 @@
       <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -864,8 +908,12 @@
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -881,8 +929,12 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -898,8 +950,12 @@
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -915,8 +971,12 @@
       <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -932,8 +992,12 @@
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -949,8 +1013,12 @@
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -966,8 +1034,12 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -983,8 +1055,12 @@
       <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1000,8 +1076,12 @@
       <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1017,8 +1097,12 @@
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1034,8 +1118,12 @@
       <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1051,8 +1139,12 @@
       <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1068,8 +1160,12 @@
       <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1085,8 +1181,12 @@
       <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1102,8 +1202,12 @@
       <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1119,8 +1223,12 @@
       <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1136,8 +1244,12 @@
       <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1153,8 +1265,12 @@
       <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1170,8 +1286,12 @@
       <c r="E31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1187,8 +1307,12 @@
       <c r="E32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1204,8 +1328,12 @@
       <c r="E33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1221,8 +1349,12 @@
       <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1238,8 +1370,12 @@
       <c r="E35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1255,8 +1391,12 @@
       <c r="E36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1272,8 +1412,12 @@
       <c r="E37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1289,8 +1433,12 @@
       <c r="E38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1306,8 +1454,12 @@
       <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1323,8 +1475,12 @@
       <c r="E40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1340,8 +1496,12 @@
       <c r="E41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1357,8 +1517,12 @@
       <c r="E42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1374,8 +1538,12 @@
       <c r="E43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1391,8 +1559,12 @@
       <c r="E44" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1408,8 +1580,12 @@
       <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -1425,8 +1601,12 @@
       <c r="E46" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -1442,8 +1622,12 @@
       <c r="E47" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1459,8 +1643,12 @@
       <c r="E48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1476,8 +1664,12 @@
       <c r="E49" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1493,8 +1685,12 @@
       <c r="E50" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1510,8 +1706,12 @@
       <c r="E51" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -1527,8 +1727,12 @@
       <c r="E52" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -1544,8 +1748,12 @@
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -1561,8 +1769,12 @@
       <c r="E54" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -1578,8 +1790,12 @@
       <c r="E55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -1595,8 +1811,12 @@
       <c r="E56" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1612,8 +1832,12 @@
       <c r="E57" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -1629,8 +1853,12 @@
       <c r="E58" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -1646,8 +1874,12 @@
       <c r="E59" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -1663,8 +1895,12 @@
       <c r="E60" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1680,8 +1916,12 @@
       <c r="E61" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -1697,8 +1937,12 @@
       <c r="E62" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -1714,8 +1958,12 @@
       <c r="E63" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -1731,8 +1979,12 @@
       <c r="E64" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -1748,8 +2000,12 @@
       <c r="E65" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1765,8 +2021,12 @@
       <c r="E66" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -1782,8 +2042,12 @@
       <c r="E67" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F72" si="1">D67/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -1799,8 +2063,12 @@
       <c r="E68" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -1816,8 +2084,12 @@
       <c r="E69" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -1833,8 +2105,12 @@
       <c r="E70" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -1850,8 +2126,12 @@
       <c r="E71" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -1866,6 +2146,14 @@
       </c>
       <c r="E72" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f>SUM(F2:F72)</f>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
